--- a/app/Helpers/Excel/template/t_nyukin.xlsx
+++ b/app/Helpers/Excel/template/t_nyukin.xlsx
@@ -81,7 +81,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yy/mm/dd;@"/>
-    <numFmt numFmtId="165" formatCode="yy/mm/dd\ \ \ \ hh:mm;@"/>
+    <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ \ \ \ hh:mm;@"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -323,9 +323,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -341,6 +338,15 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -356,6 +362,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -368,32 +392,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -683,9 +683,7 @@
   </sheetPr>
   <dimension ref="A2:AD51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10:Y10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" customHeight="1"/>
   <cols>
@@ -702,48 +700,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:29" ht="14.1" customHeight="1" thickBot="1">
-      <c r="L2" s="39" t="s">
+      <c r="L2" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
     </row>
     <row r="3" spans="2:29" ht="14.1" customHeight="1" thickBot="1">
       <c r="H3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
       <c r="W3" s="2"/>
       <c r="Y3" s="2"/>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="18"/>
+      <c r="AB3" s="46"/>
+      <c r="AC3" s="17"/>
     </row>
     <row r="4" spans="2:29" ht="14.1" customHeight="1">
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
     </row>
     <row r="6" spans="2:29" ht="14.1" customHeight="1" thickBot="1">
       <c r="B6" s="8"/>
@@ -757,30 +755,30 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="35" t="s">
+      <c r="J7" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="35" t="s">
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="35" t="s">
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="S7" s="36"/>
-      <c r="T7" s="36"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="35" t="s">
+      <c r="S7" s="44"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="W7" s="36"/>
-      <c r="X7" s="36"/>
-      <c r="Y7" s="37"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="45"/>
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
       <c r="AB7" s="4"/>
@@ -793,50 +791,50 @@
       <c r="C8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="33"/>
-      <c r="F8" s="32" t="s">
+      <c r="E8" s="35"/>
+      <c r="F8" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="35" t="s">
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="35" t="s">
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="35" t="s">
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="S8" s="36"/>
-      <c r="T8" s="36"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="35" t="s">
+      <c r="S8" s="44"/>
+      <c r="T8" s="44"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="W8" s="36"/>
-      <c r="X8" s="36"/>
-      <c r="Y8" s="37"/>
+      <c r="W8" s="44"/>
+      <c r="X8" s="44"/>
+      <c r="Y8" s="45"/>
       <c r="Z8" s="7" t="s">
         <v>0</v>
       </c>
       <c r="AA8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="AB8" s="32" t="s">
+      <c r="AB8" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="AC8" s="33"/>
+      <c r="AC8" s="35"/>
     </row>
     <row r="9" spans="2:29" ht="14.1" customHeight="1" thickBot="1">
       <c r="B9" s="14"/>
@@ -847,56 +845,56 @@
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="38"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="38"/>
-      <c r="V9" s="38"/>
-      <c r="W9" s="38"/>
-      <c r="X9" s="38"/>
-      <c r="Y9" s="38"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
       <c r="Z9" s="14"/>
       <c r="AA9" s="14"/>
-      <c r="AB9" s="40"/>
-      <c r="AC9" s="41"/>
+      <c r="AB9" s="37"/>
+      <c r="AC9" s="38"/>
     </row>
     <row r="10" spans="2:29" ht="14.1" customHeight="1" thickBot="1">
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
       <c r="E10" s="13"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="38"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="38"/>
-      <c r="V10" s="46"/>
-      <c r="W10" s="46"/>
-      <c r="X10" s="46"/>
-      <c r="Y10" s="46"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="41"/>
+      <c r="W10" s="41"/>
+      <c r="X10" s="41"/>
+      <c r="Y10" s="41"/>
       <c r="Z10" s="15"/>
       <c r="AA10" s="15"/>
-      <c r="AB10" s="42"/>
-      <c r="AC10" s="43"/>
+      <c r="AB10" s="39"/>
+      <c r="AC10" s="40"/>
     </row>
     <row r="11" spans="2:29" ht="14.1" customHeight="1" thickBot="1">
       <c r="B11" s="14"/>
@@ -907,22 +905,22 @@
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="11"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="27"/>
-      <c r="X11" s="27"/>
-      <c r="Y11" s="28"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="27"/>
       <c r="Z11" s="14"/>
       <c r="AA11" s="14"/>
       <c r="AB11" s="10"/>
@@ -933,26 +931,26 @@
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
       <c r="E12" s="13"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="27"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="27"/>
-      <c r="X12" s="27"/>
-      <c r="Y12" s="28"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="27"/>
       <c r="Z12" s="15"/>
       <c r="AA12" s="15"/>
       <c r="AB12" s="12"/>
@@ -967,22 +965,22 @@
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="11"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="27"/>
-      <c r="X13" s="27"/>
-      <c r="Y13" s="28"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="27"/>
       <c r="Z13" s="14"/>
       <c r="AA13" s="14"/>
       <c r="AB13" s="10"/>
@@ -993,26 +991,26 @@
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="13"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="27"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="26"/>
-      <c r="W14" s="27"/>
-      <c r="X14" s="27"/>
-      <c r="Y14" s="28"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="27"/>
       <c r="Z14" s="15"/>
       <c r="AA14" s="15"/>
       <c r="AB14" s="12"/>
@@ -1027,22 +1025,22 @@
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="11"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="26"/>
-      <c r="W15" s="27"/>
-      <c r="X15" s="27"/>
-      <c r="Y15" s="28"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="27"/>
       <c r="Z15" s="14"/>
       <c r="AA15" s="14"/>
       <c r="AB15" s="10"/>
@@ -1053,26 +1051,26 @@
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="13"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="28"/>
-      <c r="V16" s="26"/>
-      <c r="W16" s="27"/>
-      <c r="X16" s="27"/>
-      <c r="Y16" s="28"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="27"/>
       <c r="Z16" s="15"/>
       <c r="AA16" s="15"/>
       <c r="AB16" s="12"/>
@@ -1087,22 +1085,22 @@
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="11"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="26"/>
-      <c r="W17" s="27"/>
-      <c r="X17" s="27"/>
-      <c r="Y17" s="28"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="27"/>
       <c r="Z17" s="14"/>
       <c r="AA17" s="14"/>
       <c r="AB17" s="10"/>
@@ -1113,26 +1111,26 @@
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
       <c r="E18" s="13"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="27"/>
-      <c r="X18" s="27"/>
-      <c r="Y18" s="28"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="27"/>
       <c r="Z18" s="15"/>
       <c r="AA18" s="15"/>
       <c r="AB18" s="12"/>
@@ -1147,22 +1145,22 @@
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="11"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="26"/>
-      <c r="W19" s="27"/>
-      <c r="X19" s="27"/>
-      <c r="Y19" s="28"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="26"/>
+      <c r="Y19" s="27"/>
       <c r="Z19" s="14"/>
       <c r="AA19" s="14"/>
       <c r="AB19" s="10"/>
@@ -1173,26 +1171,26 @@
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
       <c r="E20" s="13"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="26"/>
-      <c r="W20" s="27"/>
-      <c r="X20" s="27"/>
-      <c r="Y20" s="28"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="26"/>
+      <c r="X20" s="26"/>
+      <c r="Y20" s="27"/>
       <c r="Z20" s="15"/>
       <c r="AA20" s="15"/>
       <c r="AB20" s="12"/>
@@ -1207,22 +1205,22 @@
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="11"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="26"/>
-      <c r="W21" s="27"/>
-      <c r="X21" s="27"/>
-      <c r="Y21" s="28"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="27"/>
+      <c r="V21" s="25"/>
+      <c r="W21" s="26"/>
+      <c r="X21" s="26"/>
+      <c r="Y21" s="27"/>
       <c r="Z21" s="14"/>
       <c r="AA21" s="14"/>
       <c r="AB21" s="10"/>
@@ -1233,26 +1231,26 @@
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
       <c r="E22" s="13"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="28"/>
-      <c r="V22" s="26"/>
-      <c r="W22" s="27"/>
-      <c r="X22" s="27"/>
-      <c r="Y22" s="28"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="27"/>
+      <c r="V22" s="25"/>
+      <c r="W22" s="26"/>
+      <c r="X22" s="26"/>
+      <c r="Y22" s="27"/>
       <c r="Z22" s="15"/>
       <c r="AA22" s="15"/>
       <c r="AB22" s="12"/>
@@ -1267,22 +1265,22 @@
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="11"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="28"/>
-      <c r="V23" s="26"/>
-      <c r="W23" s="27"/>
-      <c r="X23" s="27"/>
-      <c r="Y23" s="28"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="27"/>
       <c r="Z23" s="14"/>
       <c r="AA23" s="14"/>
       <c r="AB23" s="10"/>
@@ -1293,26 +1291,26 @@
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
       <c r="E24" s="13"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="27"/>
-      <c r="U24" s="28"/>
-      <c r="V24" s="26"/>
-      <c r="W24" s="27"/>
-      <c r="X24" s="27"/>
-      <c r="Y24" s="28"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="27"/>
+      <c r="V24" s="25"/>
+      <c r="W24" s="26"/>
+      <c r="X24" s="26"/>
+      <c r="Y24" s="27"/>
       <c r="Z24" s="15"/>
       <c r="AA24" s="15"/>
       <c r="AB24" s="12"/>
@@ -1327,22 +1325,22 @@
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
       <c r="I25" s="11"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="28"/>
-      <c r="V25" s="26"/>
-      <c r="W25" s="27"/>
-      <c r="X25" s="27"/>
-      <c r="Y25" s="28"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="27"/>
+      <c r="V25" s="25"/>
+      <c r="W25" s="26"/>
+      <c r="X25" s="26"/>
+      <c r="Y25" s="27"/>
       <c r="Z25" s="14"/>
       <c r="AA25" s="14"/>
       <c r="AB25" s="10"/>
@@ -1353,26 +1351,26 @@
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
       <c r="E26" s="13"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="27"/>
-      <c r="T26" s="27"/>
-      <c r="U26" s="28"/>
-      <c r="V26" s="26"/>
-      <c r="W26" s="27"/>
-      <c r="X26" s="27"/>
-      <c r="Y26" s="28"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="27"/>
+      <c r="V26" s="25"/>
+      <c r="W26" s="26"/>
+      <c r="X26" s="26"/>
+      <c r="Y26" s="27"/>
       <c r="Z26" s="15"/>
       <c r="AA26" s="15"/>
       <c r="AB26" s="12"/>
@@ -1387,22 +1385,22 @@
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
       <c r="I27" s="11"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="26"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="27"/>
-      <c r="U27" s="28"/>
-      <c r="V27" s="26"/>
-      <c r="W27" s="27"/>
-      <c r="X27" s="27"/>
-      <c r="Y27" s="28"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="27"/>
+      <c r="V27" s="25"/>
+      <c r="W27" s="26"/>
+      <c r="X27" s="26"/>
+      <c r="Y27" s="27"/>
       <c r="Z27" s="14"/>
       <c r="AA27" s="14"/>
       <c r="AB27" s="10"/>
@@ -1413,26 +1411,26 @@
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
       <c r="E28" s="13"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="28"/>
-      <c r="R28" s="26"/>
-      <c r="S28" s="27"/>
-      <c r="T28" s="27"/>
-      <c r="U28" s="28"/>
-      <c r="V28" s="26"/>
-      <c r="W28" s="27"/>
-      <c r="X28" s="27"/>
-      <c r="Y28" s="28"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="27"/>
+      <c r="V28" s="25"/>
+      <c r="W28" s="26"/>
+      <c r="X28" s="26"/>
+      <c r="Y28" s="27"/>
       <c r="Z28" s="15"/>
       <c r="AA28" s="15"/>
       <c r="AB28" s="12"/>
@@ -1447,22 +1445,22 @@
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
       <c r="I29" s="11"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="28"/>
-      <c r="R29" s="26"/>
-      <c r="S29" s="27"/>
-      <c r="T29" s="27"/>
-      <c r="U29" s="28"/>
-      <c r="V29" s="26"/>
-      <c r="W29" s="27"/>
-      <c r="X29" s="27"/>
-      <c r="Y29" s="28"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="27"/>
+      <c r="V29" s="25"/>
+      <c r="W29" s="26"/>
+      <c r="X29" s="26"/>
+      <c r="Y29" s="27"/>
       <c r="Z29" s="14"/>
       <c r="AA29" s="14"/>
       <c r="AB29" s="10"/>
@@ -1473,26 +1471,26 @@
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
       <c r="E30" s="13"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="28"/>
-      <c r="R30" s="26"/>
-      <c r="S30" s="27"/>
-      <c r="T30" s="27"/>
-      <c r="U30" s="28"/>
-      <c r="V30" s="26"/>
-      <c r="W30" s="27"/>
-      <c r="X30" s="27"/>
-      <c r="Y30" s="28"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="27"/>
+      <c r="V30" s="25"/>
+      <c r="W30" s="26"/>
+      <c r="X30" s="26"/>
+      <c r="Y30" s="27"/>
       <c r="Z30" s="15"/>
       <c r="AA30" s="15"/>
       <c r="AB30" s="12"/>
@@ -1507,22 +1505,22 @@
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
       <c r="I31" s="11"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="28"/>
-      <c r="R31" s="26"/>
-      <c r="S31" s="27"/>
-      <c r="T31" s="27"/>
-      <c r="U31" s="28"/>
-      <c r="V31" s="26"/>
-      <c r="W31" s="27"/>
-      <c r="X31" s="27"/>
-      <c r="Y31" s="28"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="27"/>
+      <c r="V31" s="25"/>
+      <c r="W31" s="26"/>
+      <c r="X31" s="26"/>
+      <c r="Y31" s="27"/>
       <c r="Z31" s="14"/>
       <c r="AA31" s="14"/>
       <c r="AB31" s="10"/>
@@ -1533,26 +1531,26 @@
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="13"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="26"/>
-      <c r="O32" s="27"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="28"/>
-      <c r="R32" s="26"/>
-      <c r="S32" s="27"/>
-      <c r="T32" s="27"/>
-      <c r="U32" s="28"/>
-      <c r="V32" s="26"/>
-      <c r="W32" s="27"/>
-      <c r="X32" s="27"/>
-      <c r="Y32" s="28"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="27"/>
+      <c r="V32" s="25"/>
+      <c r="W32" s="26"/>
+      <c r="X32" s="26"/>
+      <c r="Y32" s="27"/>
       <c r="Z32" s="15"/>
       <c r="AA32" s="15"/>
       <c r="AB32" s="12"/>
@@ -1567,22 +1565,22 @@
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
       <c r="I33" s="11"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="28"/>
-      <c r="R33" s="26"/>
-      <c r="S33" s="27"/>
-      <c r="T33" s="27"/>
-      <c r="U33" s="28"/>
-      <c r="V33" s="26"/>
-      <c r="W33" s="27"/>
-      <c r="X33" s="27"/>
-      <c r="Y33" s="28"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="27"/>
+      <c r="V33" s="25"/>
+      <c r="W33" s="26"/>
+      <c r="X33" s="26"/>
+      <c r="Y33" s="27"/>
       <c r="Z33" s="14"/>
       <c r="AA33" s="14"/>
       <c r="AB33" s="10"/>
@@ -1593,26 +1591,26 @@
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
       <c r="E34" s="13"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="27"/>
-      <c r="P34" s="27"/>
-      <c r="Q34" s="28"/>
-      <c r="R34" s="26"/>
-      <c r="S34" s="27"/>
-      <c r="T34" s="27"/>
-      <c r="U34" s="28"/>
-      <c r="V34" s="26"/>
-      <c r="W34" s="27"/>
-      <c r="X34" s="27"/>
-      <c r="Y34" s="28"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="26"/>
+      <c r="T34" s="26"/>
+      <c r="U34" s="27"/>
+      <c r="V34" s="25"/>
+      <c r="W34" s="26"/>
+      <c r="X34" s="26"/>
+      <c r="Y34" s="27"/>
       <c r="Z34" s="15"/>
       <c r="AA34" s="15"/>
       <c r="AB34" s="12"/>
@@ -1627,22 +1625,22 @@
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
       <c r="I35" s="11"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="27"/>
-      <c r="P35" s="27"/>
-      <c r="Q35" s="28"/>
-      <c r="R35" s="26"/>
-      <c r="S35" s="27"/>
-      <c r="T35" s="27"/>
-      <c r="U35" s="28"/>
-      <c r="V35" s="26"/>
-      <c r="W35" s="27"/>
-      <c r="X35" s="27"/>
-      <c r="Y35" s="28"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="26"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="27"/>
+      <c r="V35" s="25"/>
+      <c r="W35" s="26"/>
+      <c r="X35" s="26"/>
+      <c r="Y35" s="27"/>
       <c r="Z35" s="14"/>
       <c r="AA35" s="14"/>
       <c r="AB35" s="10"/>
@@ -1653,26 +1651,26 @@
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
       <c r="E36" s="13"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="27"/>
-      <c r="M36" s="28"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="27"/>
-      <c r="P36" s="27"/>
-      <c r="Q36" s="28"/>
-      <c r="R36" s="26"/>
-      <c r="S36" s="27"/>
-      <c r="T36" s="27"/>
-      <c r="U36" s="28"/>
-      <c r="V36" s="26"/>
-      <c r="W36" s="27"/>
-      <c r="X36" s="27"/>
-      <c r="Y36" s="28"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="26"/>
+      <c r="U36" s="27"/>
+      <c r="V36" s="25"/>
+      <c r="W36" s="26"/>
+      <c r="X36" s="26"/>
+      <c r="Y36" s="27"/>
       <c r="Z36" s="15"/>
       <c r="AA36" s="15"/>
       <c r="AB36" s="12"/>
@@ -1687,312 +1685,312 @@
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="21"/>
-      <c r="R37" s="21"/>
-      <c r="S37" s="21"/>
-      <c r="T37" s="21"/>
-      <c r="U37" s="21"/>
-      <c r="V37" s="21"/>
-      <c r="W37" s="21"/>
-      <c r="X37" s="21"/>
-      <c r="Y37" s="21"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="20"/>
+      <c r="T37" s="20"/>
+      <c r="U37" s="20"/>
+      <c r="V37" s="20"/>
+      <c r="W37" s="20"/>
+      <c r="X37" s="20"/>
+      <c r="Y37" s="20"/>
       <c r="Z37" s="10"/>
       <c r="AA37" s="10"/>
       <c r="AB37" s="10"/>
       <c r="AC37" s="10"/>
     </row>
     <row r="38" spans="1:30" ht="14.1" customHeight="1">
-      <c r="B38" s="20"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
-      <c r="R38" s="22"/>
-      <c r="S38" s="22"/>
-      <c r="T38" s="22"/>
-      <c r="U38" s="22"/>
-      <c r="V38" s="22"/>
-      <c r="W38" s="22"/>
-      <c r="X38" s="22"/>
-      <c r="Y38" s="22"/>
-      <c r="Z38" s="20"/>
-      <c r="AA38" s="20"/>
-      <c r="AB38" s="19"/>
-      <c r="AC38" s="19"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="21"/>
+      <c r="R38" s="21"/>
+      <c r="S38" s="21"/>
+      <c r="T38" s="21"/>
+      <c r="U38" s="21"/>
+      <c r="V38" s="21"/>
+      <c r="W38" s="21"/>
+      <c r="X38" s="21"/>
+      <c r="Y38" s="21"/>
+      <c r="Z38" s="19"/>
+      <c r="AA38" s="19"/>
+      <c r="AB38" s="18"/>
+      <c r="AC38" s="18"/>
     </row>
     <row r="39" spans="1:30" ht="14.1" customHeight="1">
-      <c r="A39" s="19"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
-      <c r="R39" s="22"/>
-      <c r="S39" s="22"/>
-      <c r="T39" s="22"/>
-      <c r="U39" s="22"/>
-      <c r="V39" s="22"/>
-      <c r="W39" s="22"/>
-      <c r="X39" s="22"/>
-      <c r="Y39" s="22"/>
-      <c r="Z39" s="19"/>
-      <c r="AA39" s="19"/>
-      <c r="AB39" s="19"/>
-      <c r="AC39" s="19"/>
-      <c r="AD39" s="19"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="21"/>
+      <c r="S39" s="21"/>
+      <c r="T39" s="21"/>
+      <c r="U39" s="21"/>
+      <c r="V39" s="21"/>
+      <c r="W39" s="21"/>
+      <c r="X39" s="21"/>
+      <c r="Y39" s="21"/>
+      <c r="Z39" s="18"/>
+      <c r="AA39" s="18"/>
+      <c r="AB39" s="18"/>
+      <c r="AC39" s="18"/>
+      <c r="AD39" s="18"/>
     </row>
     <row r="40" spans="1:30" ht="14.1" customHeight="1">
-      <c r="A40" s="19"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="22"/>
-      <c r="P40" s="22"/>
-      <c r="Q40" s="22"/>
-      <c r="R40" s="22"/>
-      <c r="S40" s="22"/>
-      <c r="T40" s="22"/>
-      <c r="U40" s="22"/>
-      <c r="V40" s="22"/>
-      <c r="W40" s="22"/>
-      <c r="X40" s="22"/>
-      <c r="Y40" s="22"/>
-      <c r="Z40" s="20"/>
-      <c r="AA40" s="20"/>
-      <c r="AB40" s="19"/>
-      <c r="AC40" s="19"/>
-      <c r="AD40" s="19"/>
+      <c r="A40" s="18"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="21"/>
+      <c r="R40" s="21"/>
+      <c r="S40" s="21"/>
+      <c r="T40" s="21"/>
+      <c r="U40" s="21"/>
+      <c r="V40" s="21"/>
+      <c r="W40" s="21"/>
+      <c r="X40" s="21"/>
+      <c r="Y40" s="21"/>
+      <c r="Z40" s="19"/>
+      <c r="AA40" s="19"/>
+      <c r="AB40" s="18"/>
+      <c r="AC40" s="18"/>
+      <c r="AD40" s="18"/>
     </row>
     <row r="41" spans="1:30" ht="14.1" customHeight="1">
-      <c r="A41" s="19"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="22"/>
-      <c r="N41" s="22"/>
-      <c r="O41" s="22"/>
-      <c r="P41" s="22"/>
-      <c r="Q41" s="22"/>
-      <c r="R41" s="22"/>
-      <c r="S41" s="22"/>
-      <c r="T41" s="22"/>
-      <c r="U41" s="22"/>
-      <c r="V41" s="22"/>
-      <c r="W41" s="22"/>
-      <c r="X41" s="22"/>
-      <c r="Y41" s="22"/>
-      <c r="Z41" s="19"/>
-      <c r="AA41" s="19"/>
-      <c r="AB41" s="19"/>
-      <c r="AC41" s="19"/>
-      <c r="AD41" s="19"/>
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="21"/>
+      <c r="R41" s="21"/>
+      <c r="S41" s="21"/>
+      <c r="T41" s="21"/>
+      <c r="U41" s="21"/>
+      <c r="V41" s="21"/>
+      <c r="W41" s="21"/>
+      <c r="X41" s="21"/>
+      <c r="Y41" s="21"/>
+      <c r="Z41" s="18"/>
+      <c r="AA41" s="18"/>
+      <c r="AB41" s="18"/>
+      <c r="AC41" s="18"/>
+      <c r="AD41" s="18"/>
     </row>
     <row r="42" spans="1:30" ht="14.1" customHeight="1">
-      <c r="A42" s="19"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="22"/>
-      <c r="P42" s="22"/>
-      <c r="Q42" s="22"/>
-      <c r="R42" s="22"/>
-      <c r="S42" s="22"/>
-      <c r="T42" s="22"/>
-      <c r="U42" s="22"/>
-      <c r="V42" s="22"/>
-      <c r="W42" s="22"/>
-      <c r="X42" s="22"/>
-      <c r="Y42" s="22"/>
-      <c r="Z42" s="20"/>
-      <c r="AA42" s="20"/>
-      <c r="AB42" s="19"/>
-      <c r="AC42" s="19"/>
-      <c r="AD42" s="19"/>
+      <c r="A42" s="18"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="21"/>
+      <c r="R42" s="21"/>
+      <c r="S42" s="21"/>
+      <c r="T42" s="21"/>
+      <c r="U42" s="21"/>
+      <c r="V42" s="21"/>
+      <c r="W42" s="21"/>
+      <c r="X42" s="21"/>
+      <c r="Y42" s="21"/>
+      <c r="Z42" s="19"/>
+      <c r="AA42" s="19"/>
+      <c r="AB42" s="18"/>
+      <c r="AC42" s="18"/>
+      <c r="AD42" s="18"/>
     </row>
     <row r="43" spans="1:30" ht="14.1" customHeight="1">
-      <c r="A43" s="19"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="22"/>
-      <c r="O43" s="22"/>
-      <c r="P43" s="22"/>
-      <c r="Q43" s="22"/>
-      <c r="R43" s="22"/>
-      <c r="S43" s="22"/>
-      <c r="T43" s="22"/>
-      <c r="U43" s="22"/>
-      <c r="V43" s="22"/>
-      <c r="W43" s="22"/>
-      <c r="X43" s="22"/>
-      <c r="Y43" s="22"/>
-      <c r="Z43" s="19"/>
-      <c r="AA43" s="19"/>
-      <c r="AB43" s="19"/>
-      <c r="AC43" s="19"/>
-      <c r="AD43" s="19"/>
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="21"/>
+      <c r="R43" s="21"/>
+      <c r="S43" s="21"/>
+      <c r="T43" s="21"/>
+      <c r="U43" s="21"/>
+      <c r="V43" s="21"/>
+      <c r="W43" s="21"/>
+      <c r="X43" s="21"/>
+      <c r="Y43" s="21"/>
+      <c r="Z43" s="18"/>
+      <c r="AA43" s="18"/>
+      <c r="AB43" s="18"/>
+      <c r="AC43" s="18"/>
+      <c r="AD43" s="18"/>
     </row>
     <row r="44" spans="1:30" ht="14.1" customHeight="1">
-      <c r="A44" s="19"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="22"/>
-      <c r="O44" s="22"/>
-      <c r="P44" s="22"/>
-      <c r="Q44" s="22"/>
-      <c r="R44" s="22"/>
-      <c r="S44" s="22"/>
-      <c r="T44" s="22"/>
-      <c r="U44" s="22"/>
-      <c r="V44" s="22"/>
-      <c r="W44" s="22"/>
-      <c r="X44" s="22"/>
-      <c r="Y44" s="22"/>
-      <c r="Z44" s="20"/>
-      <c r="AA44" s="20"/>
-      <c r="AB44" s="19"/>
-      <c r="AC44" s="19"/>
-      <c r="AD44" s="19"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="21"/>
+      <c r="R44" s="21"/>
+      <c r="S44" s="21"/>
+      <c r="T44" s="21"/>
+      <c r="U44" s="21"/>
+      <c r="V44" s="21"/>
+      <c r="W44" s="21"/>
+      <c r="X44" s="21"/>
+      <c r="Y44" s="21"/>
+      <c r="Z44" s="19"/>
+      <c r="AA44" s="19"/>
+      <c r="AB44" s="18"/>
+      <c r="AC44" s="18"/>
+      <c r="AD44" s="18"/>
     </row>
     <row r="45" spans="1:30" ht="14.1" customHeight="1">
-      <c r="A45" s="19"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="22"/>
-      <c r="L45" s="22"/>
-      <c r="M45" s="22"/>
-      <c r="N45" s="22"/>
-      <c r="O45" s="22"/>
-      <c r="P45" s="22"/>
-      <c r="Q45" s="22"/>
-      <c r="R45" s="22"/>
-      <c r="S45" s="22"/>
-      <c r="T45" s="22"/>
-      <c r="U45" s="22"/>
-      <c r="V45" s="22"/>
-      <c r="W45" s="22"/>
-      <c r="X45" s="22"/>
-      <c r="Y45" s="22"/>
-      <c r="Z45" s="19"/>
-      <c r="AA45" s="19"/>
-      <c r="AB45" s="19"/>
-      <c r="AC45" s="19"/>
-      <c r="AD45" s="19"/>
+      <c r="A45" s="18"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="21"/>
+      <c r="P45" s="21"/>
+      <c r="Q45" s="21"/>
+      <c r="R45" s="21"/>
+      <c r="S45" s="21"/>
+      <c r="T45" s="21"/>
+      <c r="U45" s="21"/>
+      <c r="V45" s="21"/>
+      <c r="W45" s="21"/>
+      <c r="X45" s="21"/>
+      <c r="Y45" s="21"/>
+      <c r="Z45" s="18"/>
+      <c r="AA45" s="18"/>
+      <c r="AB45" s="18"/>
+      <c r="AC45" s="18"/>
+      <c r="AD45" s="18"/>
     </row>
     <row r="46" spans="1:30" ht="14.1" customHeight="1">
-      <c r="A46" s="19"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="22"/>
-      <c r="L46" s="22"/>
-      <c r="M46" s="22"/>
-      <c r="N46" s="22"/>
-      <c r="O46" s="22"/>
-      <c r="P46" s="22"/>
-      <c r="Q46" s="22"/>
-      <c r="R46" s="22"/>
-      <c r="S46" s="22"/>
-      <c r="T46" s="22"/>
-      <c r="U46" s="22"/>
-      <c r="V46" s="22"/>
-      <c r="W46" s="22"/>
-      <c r="X46" s="22"/>
-      <c r="Y46" s="22"/>
-      <c r="Z46" s="20"/>
-      <c r="AA46" s="20"/>
-      <c r="AB46" s="19"/>
-      <c r="AC46" s="19"/>
-      <c r="AD46" s="19"/>
+      <c r="A46" s="18"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="21"/>
+      <c r="P46" s="21"/>
+      <c r="Q46" s="21"/>
+      <c r="R46" s="21"/>
+      <c r="S46" s="21"/>
+      <c r="T46" s="21"/>
+      <c r="U46" s="21"/>
+      <c r="V46" s="21"/>
+      <c r="W46" s="21"/>
+      <c r="X46" s="21"/>
+      <c r="Y46" s="21"/>
+      <c r="Z46" s="19"/>
+      <c r="AA46" s="19"/>
+      <c r="AB46" s="18"/>
+      <c r="AC46" s="18"/>
+      <c r="AD46" s="18"/>
     </row>
     <row r="47" spans="1:30" ht="14.1" customHeight="1" thickBot="1"/>
     <row r="48" spans="1:30" ht="14.1" customHeight="1" thickBot="1">
@@ -2004,22 +2002,22 @@
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
       <c r="I48" s="11"/>
-      <c r="J48" s="38"/>
-      <c r="K48" s="38"/>
-      <c r="L48" s="38"/>
-      <c r="M48" s="38"/>
-      <c r="N48" s="38"/>
-      <c r="O48" s="38"/>
-      <c r="P48" s="38"/>
-      <c r="Q48" s="38"/>
-      <c r="R48" s="38"/>
-      <c r="S48" s="38"/>
-      <c r="T48" s="38"/>
-      <c r="U48" s="38"/>
-      <c r="V48" s="38"/>
-      <c r="W48" s="38"/>
-      <c r="X48" s="38"/>
-      <c r="Y48" s="38"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="30"/>
+      <c r="M48" s="30"/>
+      <c r="N48" s="30"/>
+      <c r="O48" s="30"/>
+      <c r="P48" s="30"/>
+      <c r="Q48" s="30"/>
+      <c r="R48" s="30"/>
+      <c r="S48" s="30"/>
+      <c r="T48" s="30"/>
+      <c r="U48" s="30"/>
+      <c r="V48" s="30"/>
+      <c r="W48" s="30"/>
+      <c r="X48" s="30"/>
+      <c r="Y48" s="30"/>
       <c r="Z48" s="14"/>
       <c r="AA48" s="14"/>
       <c r="AB48" s="10"/>
@@ -2028,30 +2026,30 @@
     <row r="49" spans="2:29" ht="14.1" customHeight="1" thickBot="1">
       <c r="B49" s="15"/>
       <c r="C49" s="16"/>
-      <c r="D49" s="44" t="s">
+      <c r="D49" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E49" s="45"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="31"/>
-      <c r="J49" s="38"/>
-      <c r="K49" s="38"/>
-      <c r="L49" s="38"/>
-      <c r="M49" s="38"/>
-      <c r="N49" s="38"/>
-      <c r="O49" s="38"/>
-      <c r="P49" s="38"/>
-      <c r="Q49" s="38"/>
-      <c r="R49" s="38"/>
-      <c r="S49" s="38"/>
-      <c r="T49" s="38"/>
-      <c r="U49" s="38"/>
-      <c r="V49" s="38"/>
-      <c r="W49" s="38"/>
-      <c r="X49" s="38"/>
-      <c r="Y49" s="38"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="30"/>
+      <c r="M49" s="30"/>
+      <c r="N49" s="30"/>
+      <c r="O49" s="30"/>
+      <c r="P49" s="30"/>
+      <c r="Q49" s="30"/>
+      <c r="R49" s="30"/>
+      <c r="S49" s="30"/>
+      <c r="T49" s="30"/>
+      <c r="U49" s="30"/>
+      <c r="V49" s="30"/>
+      <c r="W49" s="30"/>
+      <c r="X49" s="30"/>
+      <c r="Y49" s="30"/>
       <c r="Z49" s="15"/>
       <c r="AA49" s="15"/>
       <c r="AB49" s="12"/>
@@ -2066,22 +2064,22 @@
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
       <c r="I50" s="11"/>
-      <c r="J50" s="38"/>
-      <c r="K50" s="38"/>
-      <c r="L50" s="38"/>
-      <c r="M50" s="38"/>
-      <c r="N50" s="38"/>
-      <c r="O50" s="38"/>
-      <c r="P50" s="38"/>
-      <c r="Q50" s="38"/>
-      <c r="R50" s="38"/>
-      <c r="S50" s="38"/>
-      <c r="T50" s="38"/>
-      <c r="U50" s="38"/>
-      <c r="V50" s="38"/>
-      <c r="W50" s="38"/>
-      <c r="X50" s="38"/>
-      <c r="Y50" s="38"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="30"/>
+      <c r="L50" s="30"/>
+      <c r="M50" s="30"/>
+      <c r="N50" s="30"/>
+      <c r="O50" s="30"/>
+      <c r="P50" s="30"/>
+      <c r="Q50" s="30"/>
+      <c r="R50" s="30"/>
+      <c r="S50" s="30"/>
+      <c r="T50" s="30"/>
+      <c r="U50" s="30"/>
+      <c r="V50" s="30"/>
+      <c r="W50" s="30"/>
+      <c r="X50" s="30"/>
+      <c r="Y50" s="30"/>
       <c r="Z50" s="14"/>
       <c r="AA50" s="14"/>
       <c r="AB50" s="10"/>
@@ -2090,30 +2088,30 @@
     <row r="51" spans="2:29" ht="14.1" customHeight="1" thickBot="1">
       <c r="B51" s="15"/>
       <c r="C51" s="16"/>
-      <c r="D51" s="44" t="s">
+      <c r="D51" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E51" s="45"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="38"/>
-      <c r="K51" s="38"/>
-      <c r="L51" s="38"/>
-      <c r="M51" s="38"/>
-      <c r="N51" s="38"/>
-      <c r="O51" s="38"/>
-      <c r="P51" s="38"/>
-      <c r="Q51" s="38"/>
-      <c r="R51" s="38"/>
-      <c r="S51" s="38"/>
-      <c r="T51" s="38"/>
-      <c r="U51" s="38"/>
-      <c r="V51" s="38"/>
-      <c r="W51" s="38"/>
-      <c r="X51" s="38"/>
-      <c r="Y51" s="38"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="30"/>
+      <c r="K51" s="30"/>
+      <c r="L51" s="30"/>
+      <c r="M51" s="30"/>
+      <c r="N51" s="30"/>
+      <c r="O51" s="30"/>
+      <c r="P51" s="30"/>
+      <c r="Q51" s="30"/>
+      <c r="R51" s="30"/>
+      <c r="S51" s="30"/>
+      <c r="T51" s="30"/>
+      <c r="U51" s="30"/>
+      <c r="V51" s="30"/>
+      <c r="W51" s="30"/>
+      <c r="X51" s="30"/>
+      <c r="Y51" s="30"/>
       <c r="Z51" s="15"/>
       <c r="AA51" s="15"/>
       <c r="AB51" s="12"/>
@@ -2121,36 +2119,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="J51:M51"/>
-    <mergeCell ref="N51:Q51"/>
-    <mergeCell ref="R51:U51"/>
-    <mergeCell ref="V51:Y51"/>
-    <mergeCell ref="J50:M50"/>
-    <mergeCell ref="N50:Q50"/>
-    <mergeCell ref="R50:U50"/>
-    <mergeCell ref="V50:Y50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="J48:M48"/>
-    <mergeCell ref="N48:Q48"/>
-    <mergeCell ref="R48:U48"/>
-    <mergeCell ref="V48:Y48"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="N49:Q49"/>
-    <mergeCell ref="R49:U49"/>
-    <mergeCell ref="V49:Y49"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="L2:U4"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="AB9:AC10"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="V10:Y10"/>
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:I8"/>
@@ -2163,6 +2131,36 @@
     <mergeCell ref="N7:Q7"/>
     <mergeCell ref="R7:U7"/>
     <mergeCell ref="R8:U8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="L2:U4"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="AB9:AC10"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="V10:Y10"/>
+    <mergeCell ref="J48:M48"/>
+    <mergeCell ref="N48:Q48"/>
+    <mergeCell ref="R48:U48"/>
+    <mergeCell ref="V48:Y48"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="N49:Q49"/>
+    <mergeCell ref="R49:U49"/>
+    <mergeCell ref="V49:Y49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="J51:M51"/>
+    <mergeCell ref="N51:Q51"/>
+    <mergeCell ref="R51:U51"/>
+    <mergeCell ref="V51:Y51"/>
+    <mergeCell ref="J50:M50"/>
+    <mergeCell ref="N50:Q50"/>
+    <mergeCell ref="R50:U50"/>
+    <mergeCell ref="V50:Y50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:I51"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="90" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
